--- a/Introduction to Excel.xlsx
+++ b/Introduction to Excel.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GBMLVFILFS05N02\home0$\NirmJ\Profile\Desktop\Talent Academy\Course Material\Introduction to Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GBMLVFILFS05N02\home0$\NirmJ\Profile\Desktop\Talent Academy\Course Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BD2B63-62F4-479F-B16A-A9C2A23B7577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7086AB7B-ACCD-4759-A9A7-8A80711153E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31980" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{3EBB3163-CAD7-43BD-8DA8-363AF09343BB}"/>
+    <workbookView xWindow="2700" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{3EBB3163-CAD7-43BD-8DA8-363AF09343BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="t1diff">Table1[Diff T1 Only]</definedName>
+    <definedName name="t2commission">Table2[% Commission]</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -53,21 +80,12 @@
     <t>CTRL + SHIFT + DOWN ARROW</t>
   </si>
   <si>
-    <t>Diff</t>
-  </si>
-  <si>
     <t>1,048,576 R X 16,384 C</t>
   </si>
   <si>
     <t>Double Click to AutoFill</t>
   </si>
   <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Structured Column References</t>
-  </si>
-  <si>
     <t>Custom Sort</t>
   </si>
   <si>
@@ -77,12 +95,6 @@
     <t>Costing</t>
   </si>
   <si>
-    <t>Diff2</t>
-  </si>
-  <si>
-    <t>[@Pricing]</t>
-  </si>
-  <si>
     <t>Named Ranges</t>
   </si>
   <si>
@@ -96,13 +108,149 @@
   </si>
   <si>
     <t>Define Name</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Outline</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Sales Amount</t>
+  </si>
+  <si>
+    <t>% Commission</t>
+  </si>
+  <si>
+    <t>Commission Amount</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>Erich</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Dafna</t>
+  </si>
+  <si>
+    <t>Rob</t>
+  </si>
+  <si>
+    <t>Sales Person</t>
+  </si>
+  <si>
+    <t>Insert Table</t>
+  </si>
+  <si>
+    <t>CTRL + T</t>
+  </si>
+  <si>
+    <t>Table Design</t>
+  </si>
+  <si>
+    <t>appappa</t>
+  </si>
+  <si>
+    <t>ammamma</t>
+  </si>
+  <si>
+    <t>akkakkka</t>
+  </si>
+  <si>
+    <t>Outside Table</t>
+  </si>
+  <si>
+    <t>Inside Table</t>
+  </si>
+  <si>
+    <t>Table1[Pricing]</t>
+  </si>
+  <si>
+    <t>Diff T1&amp;T2</t>
+  </si>
+  <si>
+    <t>Diff T1 Only</t>
+  </si>
+  <si>
+    <t>Change table</t>
+  </si>
+  <si>
+    <t>Structured References</t>
+  </si>
+  <si>
+    <t>[@[Pricing]]</t>
+  </si>
+  <si>
+    <t>Name Manager</t>
+  </si>
+  <si>
+    <t>Struc Ref</t>
+  </si>
+  <si>
+    <t>Named Range</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>PEDMAS</t>
+  </si>
+  <si>
+    <t>ROUND -1</t>
+  </si>
+  <si>
+    <t>Useful for buckets</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>DATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,18 +276,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -155,18 +321,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDA22DF9-5437-435B-8DEF-61583903D899}" name="Table1" displayName="Table1" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4" xr:uid="{EDA22DF9-5437-435B-8DEF-61583903D899}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDA22DF9-5437-435B-8DEF-61583903D899}" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7" xr:uid="{EDA22DF9-5437-435B-8DEF-61583903D899}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EE97A459-284E-4723-AC36-0F44AA0730BF}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{1130F1E3-E5A2-49E5-8AEF-3D90E9BCE125}" name="Costing"/>
-    <tableColumn id="3" xr3:uid="{E66A8C18-30FC-4D92-B13B-FAF0988FE2A7}" name="Pricing"/>
-    <tableColumn id="4" xr3:uid="{79CAA1FA-C77C-4C53-BA56-CDE49F094CC3}" name="Diff" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{1130F1E3-E5A2-49E5-8AEF-3D90E9BCE125}" name="Costing" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{E66A8C18-30FC-4D92-B13B-FAF0988FE2A7}" name="Pricing" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{79CAA1FA-C77C-4C53-BA56-CDE49F094CC3}" name="Diff T1 Only" dataCellStyle="Comma">
       <calculatedColumnFormula>Table1[[#This Row],[Pricing]] - Table1[[#This Row],[Costing]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{06D9DAE3-BEFA-4100-87D1-FFDC659F6271}" name="Diff2"/>
+    <tableColumn id="5" xr3:uid="{06D9DAE3-BEFA-4100-87D1-FFDC659F6271}" name="Diff T1&amp;T2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{89E71F17-22E0-4732-9CB1-0968931D3370}" name="Table2" displayName="Table2" ref="A13:E20" totalsRowCount="1">
+  <autoFilter ref="A13:E19" xr:uid="{89E71F17-22E0-4732-9CB1-0968931D3370}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:E19">
+    <sortCondition ref="B13:B19"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E0609705-4426-433E-BED1-0B2267086A08}" name="Sales Person" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{F26AA7BD-D213-4057-9E3E-994AC8610622}" name="Region"/>
+    <tableColumn id="3" xr3:uid="{1DFCD671-0687-4099-AD45-55BDA8A0724E}" name="Sales Amount" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{B42456B0-B5EA-4476-AA76-6E702BA11C31}" name="% Commission" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{988C7201-4FC1-4D41-A7B7-72CBF54A1A93}" name="Commission Amount" totalsRowFunction="sum" dataDxfId="3">
+      <calculatedColumnFormula>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3DB2ACC3-BD59-409A-8F63-898B4029357E}" name="Table24" displayName="Table24" ref="A1:E8" totalsRowCount="1">
+  <autoFilter ref="A1:E7" xr:uid="{3DB2ACC3-BD59-409A-8F63-898B4029357E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E7">
+    <sortCondition ref="B13:B19"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4B48335F-9416-4201-A2E7-DCFDC5398A2E}" name="Sales Person" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{8CE7E86F-1CA0-4CB5-903D-D91F0FCBF5F0}" name="Region"/>
+    <tableColumn id="3" xr3:uid="{3B52D4F7-2FE6-4F33-BB7B-7F82497DB9C8}" name="Sales Amount" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{35FBE66B-33AC-422F-9C4C-8A603BD246E5}" name="% Commission" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{D744FE28-732F-4A6D-85CE-84F119039BBA}" name="Commission Amount" totalsRowFunction="sum" dataDxfId="1">
+      <calculatedColumnFormula>Table24[[#This Row],[Sales Amount]]*Table24[[#This Row],[% Commission]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -467,123 +671,598 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99222097-D0F9-4358-B1A9-229DFD71A79A}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>25</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>30</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <f>Table1[[#This Row],[Pricing]] - Table1[[#This Row],[Costing]]</f>
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" s="4"/>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>35</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>45</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <f>Table1[[#This Row],[Pricing]] - Table1[[#This Row],[Costing]]</f>
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="4"/>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>45</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>55</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <f>Table1[[#This Row],[Pricing]] - Table1[[#This Row],[Costing]]</f>
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3">
+        <f>Table1[[#This Row],[Pricing]] - Table1[[#This Row],[Costing]]</f>
+        <v>-18</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3">
+        <f>Table1[[#This Row],[Pricing]] - Table1[[#This Row],[Costing]]</f>
+        <v>22</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>60</v>
+      </c>
+      <c r="D7" s="3">
+        <f>Table1[[#This Row],[Pricing]] - Table1[[#This Row],[Costing]]</f>
+        <v>45</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="H9" t="s">
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3">
+        <v>940</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E14">
+        <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3">
+        <v>260</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E15">
+        <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3">
+        <v>800</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E16">
+        <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3">
+        <v>660</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E17">
+        <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3">
+        <v>900</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E18">
+        <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3">
+        <v>410</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E19">
+        <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
+        <v>49.199999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="E20">
+        <f>SUBTOTAL(109,Table2[Commission Amount])</f>
+        <v>570.20000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" cm="1">
+        <f t="array" ref="A23:A28">Table1[Diff T1 Only] * Table2[Commission Amount]</f>
+        <v>705</v>
+      </c>
+      <c r="B23" cm="1">
+        <f t="array" ref="B23:B28">t1diff*t2commission</f>
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>260</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1200</v>
+      </c>
+      <c r="B25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-1782</v>
+      </c>
+      <c r="B26">
+        <v>-2.6999999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2970</v>
+      </c>
+      <c r="B27">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2214</v>
+      </c>
+      <c r="B28">
+        <v>5.3999999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C332EA60-0A67-495F-8472-AB19025E3DA8}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3">
+        <v>940</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E2">
+        <f>Table24[[#This Row],[Sales Amount]]*Table24[[#This Row],[% Commission]]</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3">
+        <v>260</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <f>Table24[[#This Row],[Sales Amount]]*Table24[[#This Row],[% Commission]]</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3">
+        <v>800</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E4">
+        <f>Table24[[#This Row],[Sales Amount]]*Table24[[#This Row],[% Commission]]</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3">
+        <v>660</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E5">
+        <f>Table24[[#This Row],[Sales Amount]]*Table24[[#This Row],[% Commission]]</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3">
+        <v>900</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E6">
+        <f>Table24[[#This Row],[Sales Amount]]*Table24[[#This Row],[% Commission]]</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3">
+        <v>410</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E7">
+        <f>Table24[[#This Row],[Sales Amount]]*Table24[[#This Row],[% Commission]]</f>
+        <v>49.199999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="E8">
+        <f>SUBTOTAL(109,Table24[Commission Amount])</f>
+        <v>570.20000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/Introduction to Excel.xlsx
+++ b/Introduction to Excel.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GBMLVFILFS05N02\home0$\NirmJ\Profile\Desktop\Talent Academy\Course Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7086AB7B-ACCD-4759-A9A7-8A80711153E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE80DE2-615C-41FD-970D-A76B299F55AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{3EBB3163-CAD7-43BD-8DA8-363AF09343BB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3EBB3163-CAD7-43BD-8DA8-363AF09343BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Ex" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="t1diff">Table1[Diff T1 Only]</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -218,9 +218,6 @@
     <t>PEDMAS</t>
   </si>
   <si>
-    <t>ROUND -1</t>
-  </si>
-  <si>
     <t>Useful for buckets</t>
   </si>
   <si>
@@ -234,6 +231,48 @@
   </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>Chart</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>ROUND, -1</t>
+  </si>
+  <si>
+    <t>ROUNDUP</t>
+  </si>
+  <si>
+    <t>ROUNDDOWN</t>
+  </si>
+  <si>
+    <t>Nearest 10</t>
+  </si>
+  <si>
+    <t>MROUND</t>
+  </si>
+  <si>
+    <t>Specific multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chart Design </t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Add Data Labels</t>
+  </si>
+  <si>
+    <t>Update Legend Series</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Total Sales</t>
   </si>
 </sst>
 </file>
@@ -291,10 +330,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -302,10 +338,7 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -320,6 +353,3084 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test Ex'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Test Ex'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Test Ex'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-901B-45E6-A520-084E14C9844D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="436118616"/>
+        <c:axId val="436118976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="436118616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436118976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="436118976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436118616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test Ex'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Test Ex'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Test Ex'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F6A2-4078-8AE6-979F42F77439}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="771195768"/>
+        <c:axId val="771198648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="771195768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="771198648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="771198648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="771195768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test Ex'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Test Ex'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Test Ex'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE98-4B6E-9BBA-5D91243CF356}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2491EB9-7277-854B-1E9F-61150F195FEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0FA1612-0DF7-C8F6-DF53-B70857027FCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B149936-B2D5-A557-2FE9-DDE5D47C1634}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDA22DF9-5437-435B-8DEF-61583903D899}" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
   <autoFilter ref="A1:E7" xr:uid="{EDA22DF9-5437-435B-8DEF-61583903D899}"/>
@@ -330,7 +3441,7 @@
     <tableColumn id="4" xr3:uid="{79CAA1FA-C77C-4C53-BA56-CDE49F094CC3}" name="Diff T1 Only" dataCellStyle="Comma">
       <calculatedColumnFormula>Table1[[#This Row],[Pricing]] - Table1[[#This Row],[Costing]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{06D9DAE3-BEFA-4100-87D1-FFDC659F6271}" name="Diff T1&amp;T2" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{06D9DAE3-BEFA-4100-87D1-FFDC659F6271}" name="Diff T1&amp;T2" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -346,8 +3457,8 @@
     <tableColumn id="1" xr3:uid="{E0609705-4426-433E-BED1-0B2267086A08}" name="Sales Person" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{F26AA7BD-D213-4057-9E3E-994AC8610622}" name="Region"/>
     <tableColumn id="3" xr3:uid="{1DFCD671-0687-4099-AD45-55BDA8A0724E}" name="Sales Amount" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{B42456B0-B5EA-4476-AA76-6E702BA11C31}" name="% Commission" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{988C7201-4FC1-4D41-A7B7-72CBF54A1A93}" name="Commission Amount" totalsRowFunction="sum" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{B42456B0-B5EA-4476-AA76-6E702BA11C31}" name="% Commission" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{988C7201-4FC1-4D41-A7B7-72CBF54A1A93}" name="Commission Amount" totalsRowFunction="sum" dataDxfId="0">
       <calculatedColumnFormula>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -356,21 +3467,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3DB2ACC3-BD59-409A-8F63-898B4029357E}" name="Table24" displayName="Table24" ref="A1:E8" totalsRowCount="1">
-  <autoFilter ref="A1:E7" xr:uid="{3DB2ACC3-BD59-409A-8F63-898B4029357E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E7">
-    <sortCondition ref="B13:B19"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4B48335F-9416-4201-A2E7-DCFDC5398A2E}" name="Sales Person" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{8CE7E86F-1CA0-4CB5-903D-D91F0FCBF5F0}" name="Region"/>
-    <tableColumn id="3" xr3:uid="{3B52D4F7-2FE6-4F33-BB7B-7F82497DB9C8}" name="Sales Amount" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{35FBE66B-33AC-422F-9C4C-8A603BD246E5}" name="% Commission" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{D744FE28-732F-4A6D-85CE-84F119039BBA}" name="Commission Amount" totalsRowFunction="sum" dataDxfId="1">
-      <calculatedColumnFormula>Table24[[#This Row],[Sales Amount]]*Table24[[#This Row],[% Commission]]</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED54A91D-9C16-4A55-9EAD-1F62D447E584}" name="Table3" displayName="Table3" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9" xr:uid="{ED54A91D-9C16-4A55-9EAD-1F62D447E584}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{59DAAB9B-FB9E-41E5-A278-009BDD3D8518}" name="Year"/>
+    <tableColumn id="2" xr3:uid="{C38CEF69-D3D5-44EE-8F6B-B762B935430C}" name="Total Sales" dataCellStyle="Comma"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -673,8 +3776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99222097-D0F9-4358-B1A9-229DFD71A79A}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,8 +3788,7 @@
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1"/>
@@ -889,15 +3991,18 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
         <v>51</v>
-      </c>
-      <c r="H11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -917,7 +4022,7 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -938,7 +4043,10 @@
         <v>141</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -958,9 +4066,6 @@
         <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
         <v>26</v>
       </c>
-      <c r="G15" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -979,8 +4084,11 @@
         <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
         <v>120</v>
       </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -997,8 +4105,11 @@
         <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
         <v>99</v>
       </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1015,8 +4126,11 @@
         <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
         <v>135</v>
       </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1033,8 +4147,11 @@
         <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
         <v>49.199999999999996</v>
       </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1044,15 +4161,32 @@
         <v>570.20000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
       <c r="B22" t="s">
         <v>48</v>
       </c>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" cm="1">
         <f t="array" ref="A23:A28">Table1[Diff T1 Only] * Table2[Commission Amount]</f>
         <v>705</v>
@@ -1062,8 +4196,11 @@
         <v>0.75</v>
       </c>
       <c r="D23" s="4"/>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>260</v>
       </c>
@@ -1071,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1200</v>
       </c>
@@ -1079,7 +4216,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1782</v>
       </c>
@@ -1087,7 +4224,7 @@
         <v>-2.6999999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2970</v>
       </c>
@@ -1095,7 +4232,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2214</v>
       </c>
@@ -1115,160 +4252,111 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C332EA60-0A67-495F-8472-AB19025E3DA8}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3">
-        <v>940</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="E2">
-        <f>Table24[[#This Row],[Sales Amount]]*Table24[[#This Row],[% Commission]]</f>
-        <v>141</v>
-      </c>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3">
-        <v>260</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E3">
-        <f>Table24[[#This Row],[Sales Amount]]*Table24[[#This Row],[% Commission]]</f>
-        <v>26</v>
-      </c>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="3">
+        <v>150000</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3">
-        <v>800</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="E4">
-        <f>Table24[[#This Row],[Sales Amount]]*Table24[[#This Row],[% Commission]]</f>
-        <v>120</v>
-      </c>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="3">
+        <v>175000</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3">
-        <v>660</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="E5">
-        <f>Table24[[#This Row],[Sales Amount]]*Table24[[#This Row],[% Commission]]</f>
-        <v>99</v>
-      </c>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="3">
+        <v>125000</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3">
-        <v>900</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="E6">
-        <f>Table24[[#This Row],[Sales Amount]]*Table24[[#This Row],[% Commission]]</f>
-        <v>135</v>
-      </c>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="3">
+        <v>115000</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3">
-        <v>410</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="E7">
-        <f>Table24[[#This Row],[Sales Amount]]*Table24[[#This Row],[% Commission]]</f>
-        <v>49.199999999999996</v>
-      </c>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="3">
+        <v>135000</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>49</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="3">
+        <v>110000</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="E8">
-        <f>SUBTOTAL(109,Table24[Commission Amount])</f>
-        <v>570.20000000000005</v>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2024</v>
+      </c>
+      <c r="B9" s="3">
+        <v>180000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Introduction to Excel.xlsx
+++ b/Introduction to Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GBMLVFILFS05N02\home0$\NirmJ\Profile\Desktop\Talent Academy\Course Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE80DE2-615C-41FD-970D-A76B299F55AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20377933-FBBB-4743-8A23-2317E2F096DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3EBB3163-CAD7-43BD-8DA8-363AF09343BB}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -273,6 +273,15 @@
   </si>
   <si>
     <t>Total Sales</t>
+  </si>
+  <si>
+    <t>Remove Duplicates</t>
+  </si>
+  <si>
+    <t>Flash Fill</t>
+  </si>
+  <si>
+    <t>Flash Fill Advanced</t>
   </si>
 </sst>
 </file>
@@ -3777,7 +3786,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4215,6 +4224,9 @@
       <c r="B25">
         <v>1.5</v>
       </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -4223,6 +4235,9 @@
       <c r="B26">
         <v>-2.6999999999999997</v>
       </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -4230,6 +4245,9 @@
       </c>
       <c r="B27">
         <v>3.3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">

--- a/Introduction to Excel.xlsx
+++ b/Introduction to Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GBMLVFILFS05N02\home0$\NirmJ\Profile\Desktop\Talent Academy\Course Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20377933-FBBB-4743-8A23-2317E2F096DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62502F26-A09F-416C-9377-BC053EEDFD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3EBB3163-CAD7-43BD-8DA8-363AF09343BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3EBB3163-CAD7-43BD-8DA8-363AF09343BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -282,6 +282,69 @@
   </si>
   <si>
     <t>Flash Fill Advanced</t>
+  </si>
+  <si>
+    <t>Fill Series</t>
+  </si>
+  <si>
+    <t>Covert to Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional Formatting </t>
+  </si>
+  <si>
+    <t>Highlight Cell Rules</t>
+  </si>
+  <si>
+    <t>Duplicate Values</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Fill</t>
+  </si>
+  <si>
+    <t>LEN</t>
+  </si>
+  <si>
+    <t>CONCAT</t>
+  </si>
+  <si>
+    <t>TEXT JOIN</t>
+  </si>
+  <si>
+    <t>TODAY</t>
+  </si>
+  <si>
+    <t>WEEKDAY</t>
+  </si>
+  <si>
+    <t>WORKDAY</t>
+  </si>
+  <si>
+    <t>Protect Worksheet</t>
+  </si>
+  <si>
+    <t>Find &amp; Replace</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>TRIM</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>IF</t>
   </si>
 </sst>
 </file>
@@ -1302,6 +1365,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D3F7-41E6-89FE-6D5C2E69F8D2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1322,6 +1390,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D3F7-41E6-89FE-6D5C2E69F8D2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1342,6 +1415,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D3F7-41E6-89FE-6D5C2E69F8D2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1362,6 +1440,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D3F7-41E6-89FE-6D5C2E69F8D2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1382,6 +1465,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D3F7-41E6-89FE-6D5C2E69F8D2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1402,6 +1490,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D3F7-41E6-89FE-6D5C2E69F8D2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1424,6 +1517,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-D3F7-41E6-89FE-6D5C2E69F8D2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1446,6 +1544,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-D3F7-41E6-89FE-6D5C2E69F8D2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3783,10 +3886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99222097-D0F9-4358-B1A9-229DFD71A79A}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4227,6 +4330,9 @@
       <c r="G25" t="s">
         <v>70</v>
       </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -4238,6 +4344,9 @@
       <c r="G26" t="s">
         <v>71</v>
       </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -4249,6 +4358,9 @@
       <c r="G27" t="s">
         <v>72</v>
       </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -4256,6 +4368,108 @@
       </c>
       <c r="B28">
         <v>5.3999999999999995</v>
+      </c>
+      <c r="D28">
+        <v>748</v>
+      </c>
+      <c r="G28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Introduction to Excel.xlsx
+++ b/Introduction to Excel.xlsx
@@ -8,19 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GBMLVFILFS05N02\home0$\NirmJ\Profile\Desktop\Talent Academy\Course Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62502F26-A09F-416C-9377-BC053EEDFD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCDB15F-A91A-4079-8095-B645643F6A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3EBB3163-CAD7-43BD-8DA8-363AF09343BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Test Ex" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$D$1</definedName>
     <definedName name="t1diff">Table1[Diff T1 Only]</definedName>
     <definedName name="t2commission">Table2[% Commission]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="152">
   <si>
     <t>Name</t>
   </si>
@@ -345,16 +351,191 @@
   </si>
   <si>
     <t>IF</t>
+  </si>
+  <si>
+    <t>Nested</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Male Over 30</t>
+  </si>
+  <si>
+    <t>Jess</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Maarten</t>
+  </si>
+  <si>
+    <t>Abdul</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Wei</t>
+  </si>
+  <si>
+    <t>Iason</t>
+  </si>
+  <si>
+    <t>Zola</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>ALT + ENTER</t>
+  </si>
+  <si>
+    <t>Line Break</t>
+  </si>
+  <si>
+    <t>IFS</t>
+  </si>
+  <si>
+    <t>IF(AND(Z2="CASH",Y2&gt;200),"Cash Over 200",IF(AND(Z2="CASH",Y2&lt;=200),"Cash Not Over 200","Non Cash Payments"))</t>
+  </si>
+  <si>
+    <t>IFS(AND(Z2="CASH", Y2&gt;200), "Cash Over 200", AND(Z2="CASH", Y2&lt;=200), "Cash Not Over 200", TRUE, "Non Cash Payments")</t>
+  </si>
+  <si>
+    <t>VLOOKUP</t>
+  </si>
+  <si>
+    <t>HLOOKUP</t>
+  </si>
+  <si>
+    <t>(lookup_value, table_array, col_index_num, [range_lookup])</t>
+  </si>
+  <si>
+    <t>range_lookup</t>
+  </si>
+  <si>
+    <t>Exact match (FALSE), aproximate match (TRUE)</t>
+  </si>
+  <si>
+    <t>col_index_num</t>
+  </si>
+  <si>
+    <t>number of result column in order of table array</t>
+  </si>
+  <si>
+    <t>PIVOT TABLE</t>
+  </si>
+  <si>
+    <t>Car ID</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price </t>
+  </si>
+  <si>
+    <t>Hyundai</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>Range Rover</t>
+  </si>
+  <si>
+    <t>Kia</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Car Name</t>
+  </si>
+  <si>
+    <t>Car Price</t>
+  </si>
+  <si>
+    <t>Car Rank</t>
+  </si>
+  <si>
+    <t>(lookup_value, table_array, row_index_num, [range_lookup])</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average of Price </t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>VLOOKUP AGE</t>
+  </si>
+  <si>
+    <t>Pivot Table Analyze</t>
+  </si>
+  <si>
+    <t>Columns, Rows, Values, Filters</t>
+  </si>
+  <si>
+    <t>Click Cell and Sort</t>
+  </si>
+  <si>
+    <t>Value Field Settings</t>
+  </si>
+  <si>
+    <t>Show values as</t>
+  </si>
+  <si>
+    <t>change custom name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;£&quot;#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,18 +550,138 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -391,18 +692,213 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;£&quot;#,##0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3543,6 +4039,200 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="nirmj" refreshedDate="45573.707898379631" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{12F09061-C527-4454-AF2A-E5B0C1AA540A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D13" sheet="Sheet3"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Car ID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12"/>
+    </cacheField>
+    <cacheField name="Car" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Hyundai"/>
+        <s v="Honda"/>
+        <s v="Toyota"/>
+        <s v="Nissan"/>
+        <s v="Suzuki"/>
+        <s v="Mercedes"/>
+        <s v="BMW"/>
+        <s v="Range Rover"/>
+        <s v="Kia"/>
+        <s v="Ford"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Price " numFmtId="166">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1000" maxValue="6000"/>
+    </cacheField>
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1995" maxValue="2005"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="1000"/>
+    <n v="2001"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <n v="2000"/>
+    <n v="2001"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="1500"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <n v="3000"/>
+    <n v="1999"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="4000"/>
+    <n v="2004"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="2500"/>
+    <n v="2005"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="6"/>
+    <n v="4500"/>
+    <n v="1998"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="5000"/>
+    <n v="2003"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="8"/>
+    <n v="1250"/>
+    <n v="1995"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="9"/>
+    <n v="3500"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="0"/>
+    <n v="5500"/>
+    <n v="2001"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="8"/>
+    <n v="6000"/>
+    <n v="1998"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F6AB5659-F5AF-40BD-BD00-99944C12A4DF}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F2:G13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="6"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Price " fld="2" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDA22DF9-5437-435B-8DEF-61583903D899}" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
   <autoFilter ref="A1:E7" xr:uid="{EDA22DF9-5437-435B-8DEF-61583903D899}"/>
@@ -3553,24 +4243,24 @@
     <tableColumn id="4" xr3:uid="{79CAA1FA-C77C-4C53-BA56-CDE49F094CC3}" name="Diff T1 Only" dataCellStyle="Comma">
       <calculatedColumnFormula>Table1[[#This Row],[Pricing]] - Table1[[#This Row],[Costing]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{06D9DAE3-BEFA-4100-87D1-FFDC659F6271}" name="Diff T1&amp;T2" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{06D9DAE3-BEFA-4100-87D1-FFDC659F6271}" name="Diff T1&amp;T2" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{89E71F17-22E0-4732-9CB1-0968931D3370}" name="Table2" displayName="Table2" ref="A13:E20" totalsRowCount="1">
-  <autoFilter ref="A13:E19" xr:uid="{89E71F17-22E0-4732-9CB1-0968931D3370}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:E19">
-    <sortCondition ref="B13:B19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{89E71F17-22E0-4732-9CB1-0968931D3370}" name="Table2" displayName="Table2" ref="A9:E16" totalsRowCount="1">
+  <autoFilter ref="A9:E15" xr:uid="{89E71F17-22E0-4732-9CB1-0968931D3370}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:E15">
+    <sortCondition ref="B9:B15"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E0609705-4426-433E-BED1-0B2267086A08}" name="Sales Person" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{F26AA7BD-D213-4057-9E3E-994AC8610622}" name="Region"/>
     <tableColumn id="3" xr3:uid="{1DFCD671-0687-4099-AD45-55BDA8A0724E}" name="Sales Amount" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{B42456B0-B5EA-4476-AA76-6E702BA11C31}" name="% Commission" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{988C7201-4FC1-4D41-A7B7-72CBF54A1A93}" name="Commission Amount" totalsRowFunction="sum" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{B42456B0-B5EA-4476-AA76-6E702BA11C31}" name="% Commission" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{988C7201-4FC1-4D41-A7B7-72CBF54A1A93}" name="Commission Amount" totalsRowFunction="sum" dataDxfId="7">
       <calculatedColumnFormula>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3579,6 +4269,37 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D05B7210-3C49-4F16-8697-CED35ACA2A5D}" name="Table4" displayName="Table4" ref="A26:D36" totalsRowShown="0">
+  <autoFilter ref="A26:D36" xr:uid="{D05B7210-3C49-4F16-8697-CED35ACA2A5D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A67D5F15-38D7-443D-8DFB-A8EE37F4A04B}" name="Employee"/>
+    <tableColumn id="2" xr3:uid="{F6D6262E-22A0-45C0-B80C-081F2F9F53C6}" name="Gender"/>
+    <tableColumn id="3" xr3:uid="{ED4B19DF-D818-4919-9C06-F17DDC91B1FC}" name="Age"/>
+    <tableColumn id="4" xr3:uid="{E82FB903-997C-4392-8980-6208638B959C}" name="Male Over 30" dataDxfId="6">
+      <calculatedColumnFormula>AND(Table4[[#This Row],[Gender]]="Male", Table4[[#This Row],[Age]]&gt;30)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB13380F-069C-4DA8-9EB8-DCDBCE462604}" name="Table6" displayName="Table6" ref="A39:E49" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="5">
+  <autoFilter ref="A39:E49" xr:uid="{BB13380F-069C-4DA8-9EB8-DCDBCE462604}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9972BE00-59E2-4560-A6F0-31E298720C61}" name="Owner" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{757BFF7A-38FC-4883-9BAF-B9BE5FF8D4E1}" name="Car" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F3B23D96-E28E-4CFE-8519-6217D655D616}" name="Price " dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{28F47790-DEA2-440D-A9F3-35D8C9104B44}" name="Year" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{E0DC0A8B-0FF3-4C65-83D0-F77752EE338A}" name="VLOOKUP AGE">
+      <calculatedColumnFormula>VLOOKUP(A40, Table4[[#All],[Employee]:[Age]], 3, FALSE)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED54A91D-9C16-4A55-9EAD-1F62D447E584}" name="Table3" displayName="Table3" ref="A1:B9" totalsRowShown="0">
   <autoFilter ref="A1:B9" xr:uid="{ED54A91D-9C16-4A55-9EAD-1F62D447E584}"/>
   <tableColumns count="2">
@@ -3886,10 +4607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99222097-D0F9-4358-B1A9-229DFD71A79A}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3899,15 +4620,16 @@
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3923,17 +4645,17 @@
       <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3948,17 +4670,19 @@
         <v>5</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="G2" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="I2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3973,14 +4697,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="G3" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3995,17 +4721,19 @@
         <v>10</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="G4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -4020,8 +4748,16 @@
         <v>-18</v>
       </c>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="O5" t="s">
+        <v>110</v>
+      </c>
+      <c r="P5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -4036,8 +4772,16 @@
         <v>22</v>
       </c>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="O6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -4052,432 +4796,857 @@
         <v>45</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="I7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>39</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
+      <c r="O7" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>38</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>38</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>14</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3">
+        <v>940</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E10">
+        <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
+        <v>141</v>
+      </c>
+      <c r="I10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3">
+        <v>260</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E11">
+        <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
         <v>58</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>61</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3">
+        <v>800</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E12">
+        <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
+        <v>120</v>
+      </c>
+      <c r="I12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3">
+        <v>660</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E13">
+        <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
+        <v>99</v>
+      </c>
+      <c r="I13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3">
-        <v>940</v>
+        <v>900</v>
       </c>
       <c r="D14" s="1">
         <v>0.15</v>
       </c>
       <c r="E14">
         <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
-        <v>141</v>
-      </c>
-      <c r="G14" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" t="s">
         <v>62</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3">
-        <v>260</v>
+        <v>410</v>
       </c>
       <c r="D15" s="1">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E15">
         <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49.199999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="3">
-        <v>800</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.15</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="E16">
-        <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
-        <v>120</v>
-      </c>
-      <c r="G16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="3">
-        <v>660</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="E17">
-        <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
-        <v>99</v>
-      </c>
-      <c r="G17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="3">
-        <v>900</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="E18">
-        <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
-        <v>135</v>
-      </c>
-      <c r="G18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3">
-        <v>410</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="E19">
-        <f>Table2[[#This Row],[Sales Amount]]*Table2[[#This Row],[% Commission]]</f>
-        <v>49.199999999999996</v>
-      </c>
-      <c r="G19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="E20">
         <f>SUBTOTAL(109,Table2[Commission Amount])</f>
         <v>570.20000000000005</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G21" t="s">
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" cm="1">
+        <f t="array" ref="A19:A24">Table1[Diff T1 Only] * Table2[Commission Amount]</f>
+        <v>705</v>
+      </c>
+      <c r="B19" cm="1">
+        <f t="array" ref="B19:B24">t1diff*t2commission</f>
+        <v>0.75</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>260</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1200</v>
+      </c>
+      <c r="B21">
+        <v>1.5</v>
+      </c>
+      <c r="I21" t="s">
         <v>57</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>56</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>64</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-1782</v>
+      </c>
+      <c r="B22">
+        <v>-2.6999999999999997</v>
+      </c>
+      <c r="I22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" cm="1">
-        <f t="array" ref="A23:A28">Table1[Diff T1 Only] * Table2[Commission Amount]</f>
-        <v>705</v>
-      </c>
-      <c r="B23" cm="1">
-        <f t="array" ref="B23:B28">t1diff*t2commission</f>
-        <v>0.75</v>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2970</v>
+      </c>
+      <c r="B23">
+        <v>3.3</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>260</v>
+        <v>2214</v>
       </c>
       <c r="B24">
+        <v>5.3999999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27" t="b">
+        <f>AND(Table4[[#This Row],[Gender]]="Male", Table4[[#This Row],[Age]]&gt;30)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+      <c r="D28" t="b">
+        <f>AND(Table4[[#This Row],[Gender]]="Male", Table4[[#This Row],[Age]]&gt;30)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29">
+        <v>34</v>
+      </c>
+      <c r="D29" t="b">
+        <f>AND(Table4[[#This Row],[Gender]]="Male", Table4[[#This Row],[Age]]&gt;30)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1200</v>
-      </c>
-      <c r="B25">
-        <v>1.5</v>
-      </c>
-      <c r="G25" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>-1782</v>
-      </c>
-      <c r="B26">
-        <v>-2.6999999999999997</v>
-      </c>
-      <c r="G26" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2970</v>
-      </c>
-      <c r="B27">
-        <v>3.3</v>
-      </c>
-      <c r="G27" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2214</v>
-      </c>
-      <c r="B28">
-        <v>5.3999999999999995</v>
-      </c>
-      <c r="D28">
-        <v>748</v>
-      </c>
-      <c r="G28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I28" t="s">
-        <v>79</v>
-      </c>
-      <c r="J28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G30" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30" t="b">
+        <f>AND(Table4[[#This Row],[Gender]]="Male", Table4[[#This Row],[Age]]&gt;30)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
         <v>74</v>
       </c>
-      <c r="H30" t="s">
+      <c r="J30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G32" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31" t="b">
+        <f>AND(Table4[[#This Row],[Gender]]="Male", Table4[[#This Row],[Age]]&gt;30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32">
+        <v>36</v>
+      </c>
+      <c r="D32" t="b">
+        <f>AND(Table4[[#This Row],[Gender]]="Male", Table4[[#This Row],[Age]]&gt;30)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
         <v>75</v>
       </c>
-      <c r="H32" t="s">
+      <c r="J32" t="s">
         <v>76</v>
       </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G34" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33">
+        <v>35</v>
+      </c>
+      <c r="D33" t="b">
+        <f>AND(Table4[[#This Row],[Gender]]="Male", Table4[[#This Row],[Age]]&gt;30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34" t="b">
+        <f>AND(Table4[[#This Row],[Gender]]="Male", Table4[[#This Row],[Age]]&gt;30)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35">
+        <v>25</v>
+      </c>
+      <c r="D35" t="b">
+        <f>AND(Table4[[#This Row],[Gender]]="Male", Table4[[#This Row],[Age]]&gt;30)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36">
+        <v>45</v>
+      </c>
+      <c r="D36" s="2" t="b">
+        <f>AND(Table4[[#This Row],[Gender]]="Male", Table4[[#This Row],[Age]]&gt;30)</f>
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G37" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G38" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G39" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="I39" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G40" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D40" s="19">
+        <v>2001</v>
+      </c>
+      <c r="E40">
+        <f>VLOOKUP(A40, Table4[[#All],[Employee]:[Age]], 3, FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="I40" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G42" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="22">
+        <v>1250</v>
+      </c>
+      <c r="D41" s="23">
+        <v>1995</v>
+      </c>
+      <c r="E41">
+        <f>VLOOKUP(A41, Table4[[#All],[Employee]:[Age]], 3, FALSE)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="18">
+        <v>1500</v>
+      </c>
+      <c r="D42" s="19">
+        <v>2000</v>
+      </c>
+      <c r="E42">
+        <f>VLOOKUP(A42, Table4[[#All],[Employee]:[Age]], 3, FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="I42" t="s">
         <v>86</v>
       </c>
-      <c r="H42" t="s">
+      <c r="J42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G43" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="23">
+        <v>2001</v>
+      </c>
+      <c r="E43">
+        <f>VLOOKUP(A43, Table4[[#All],[Employee]:[Age]], 3, FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="I43" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G45" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="18">
+        <v>2500</v>
+      </c>
+      <c r="D44" s="19">
+        <v>2005</v>
+      </c>
+      <c r="E44">
+        <f>VLOOKUP(A44, Table4[[#All],[Employee]:[Age]], 3, FALSE)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="22">
+        <v>3000</v>
+      </c>
+      <c r="D45" s="23">
+        <v>1999</v>
+      </c>
+      <c r="E45">
+        <f>VLOOKUP(A45, Table4[[#All],[Employee]:[Age]], 3, FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="I45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G46" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="18">
+        <v>3500</v>
+      </c>
+      <c r="D46" s="19">
+        <v>2000</v>
+      </c>
+      <c r="E46">
+        <f>VLOOKUP(A46, Table4[[#All],[Employee]:[Age]], 3, FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="I46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G47" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="22">
+        <v>4000</v>
+      </c>
+      <c r="D47" s="23">
+        <v>2004</v>
+      </c>
+      <c r="E47">
+        <f>VLOOKUP(A47, Table4[[#All],[Employee]:[Age]], 3, FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="I47" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G48" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="18">
+        <v>4500</v>
+      </c>
+      <c r="D48" s="19">
+        <v>1998</v>
+      </c>
+      <c r="E48">
+        <f>VLOOKUP(A48, Table4[[#All],[Employee]:[Age]], 3, FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="I48" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="24">
+        <v>5000</v>
+      </c>
+      <c r="D49" s="9">
+        <v>2003</v>
+      </c>
+      <c r="E49">
+        <f>VLOOKUP(A49, Table4[[#All],[Employee]:[Age]], 3, FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="I49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="I51" t="s">
+        <v>115</v>
+      </c>
+      <c r="J51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52" t="str">
+        <f>HLOOKUP(B39, B39:D49, $A$52, FALSE)</f>
+        <v>Toyota</v>
+      </c>
+      <c r="C52" s="11">
+        <f>HLOOKUP(C39, C39:D49, $A$52, FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="I52" t="s">
+        <v>116</v>
+      </c>
+      <c r="J52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>118</v>
+      </c>
+      <c r="J53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>120</v>
+      </c>
+      <c r="J54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>122</v>
+      </c>
+      <c r="J56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>149</v>
+      </c>
+      <c r="J59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>149</v>
+      </c>
+      <c r="J60" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4591,4 +5760,295 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6402C104-3DCC-4AFC-93F9-AC4C8B054A36}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="19">
+        <v>2001</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="23">
+        <v>2001</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="19">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="22">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1999</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="22">
+        <v>4000</v>
+      </c>
+      <c r="D6" s="23">
+        <v>2004</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="18">
+        <v>2500</v>
+      </c>
+      <c r="D7" s="19">
+        <v>2005</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="18">
+        <v>4500</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1998</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="22">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="23">
+        <v>2003</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="22">
+        <v>1250</v>
+      </c>
+      <c r="D10" s="23">
+        <v>1995</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="34">
+        <v>3500</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
+        <v>11</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="29">
+        <v>5500</v>
+      </c>
+      <c r="D12" s="30">
+        <v>2001</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
+        <v>12</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="32">
+        <v>6000</v>
+      </c>
+      <c r="D13" s="33">
+        <v>1998</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3312.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{6402C104-3DCC-4AFC-93F9-AC4C8B054A36}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>